--- a/Pandas profiling v1.0 and Chi Square - Table (v0.3).xlsx
+++ b/Pandas profiling v1.0 and Chi Square - Table (v0.3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moa57\Work Folders\Desktop\Black\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D59DBF-970C-4FAC-8DC2-3A23DADCDC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{952069B4-D304-4CFF-B282-335BA5202B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DF1F506-8A5C-474F-AA35-3D3013758B88}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>self_employed</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Variable Name</t>
-  </si>
-  <si>
-    <t>Chi Square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age </t>
   </si>
   <si>
     <t>Gender_0</t>
@@ -222,187 +216,202 @@
 N = 1259 </t>
   </si>
   <si>
-    <t>Had Mental Health Treatment 
+    <t>174 (69.0%)</t>
+  </si>
+  <si>
+    <t>538 (54.6%)</t>
+  </si>
+  <si>
+    <t>448 (45.4%)</t>
+  </si>
+  <si>
+    <t>78 (31.0%)</t>
+  </si>
+  <si>
+    <t>10 (76.9%)</t>
+  </si>
+  <si>
+    <t>3 (23.1%)</t>
+  </si>
+  <si>
+    <t>543 (49.8%)</t>
+  </si>
+  <si>
+    <t>75 (52.8%)</t>
+  </si>
+  <si>
+    <t>67 (47.2%)</t>
+  </si>
+  <si>
+    <t>548 (50.2%)</t>
+  </si>
+  <si>
+    <t>270 (35.4%)</t>
+  </si>
+  <si>
+    <t>492 (64.6%)</t>
+  </si>
+  <si>
+    <t>362 (74.0%)</t>
+  </si>
+  <si>
+    <t>127 (26.0%)</t>
+  </si>
+  <si>
+    <t>127 (43.9%)</t>
+  </si>
+  <si>
+    <t>162 (56.1%)</t>
+  </si>
+  <si>
+    <t>149 (51.7%)</t>
+  </si>
+  <si>
+    <t>139 (48.3%)</t>
+  </si>
+  <si>
+    <t>146 (52.0%)</t>
+  </si>
+  <si>
+    <t>135 (48.0%)</t>
+  </si>
+  <si>
+    <t>95 (54.3%)</t>
+  </si>
+  <si>
+    <t>80 (45.7%)</t>
+  </si>
+  <si>
+    <t>88 (55.7%)</t>
+  </si>
+  <si>
+    <t>70 (44.3%)</t>
+  </si>
+  <si>
+    <t>437 (49.7%)</t>
+  </si>
+  <si>
+    <t>443 (50.3%)</t>
+  </si>
+  <si>
+    <t>195 (52.6%)</t>
+  </si>
+  <si>
+    <t>176 (47.4%)</t>
+  </si>
+  <si>
+    <t>206 (41.3%)</t>
+  </si>
+  <si>
+    <t>293 (58.7%)</t>
+  </si>
+  <si>
+    <t>303 (69.0%)</t>
+  </si>
+  <si>
+    <t>136 (31.0%)</t>
+  </si>
+  <si>
+    <t>123 (39.3%)</t>
+  </si>
+  <si>
+    <t>190 (60.7%)</t>
+  </si>
+  <si>
+    <t>320 (49.9%)</t>
+  </si>
+  <si>
+    <t>321 (50.1%)</t>
+  </si>
+  <si>
+    <t>166 (45.7%)</t>
+  </si>
+  <si>
+    <t>197 (54.3%)</t>
+  </si>
+  <si>
+    <t>146 (59.1%)</t>
+  </si>
+  <si>
+    <t>101 (40.9%)</t>
+  </si>
+  <si>
+    <t>369 (45.3%)</t>
+  </si>
+  <si>
+    <t>446 (54.7%)</t>
+  </si>
+  <si>
+    <t>226 (60.8%)</t>
+  </si>
+  <si>
+    <t>146 (39.2%)</t>
+  </si>
+  <si>
+    <t>37 (57.8%)</t>
+  </si>
+  <si>
+    <t>27 (42.2%)</t>
+  </si>
+  <si>
+    <t>253 (45.1%)</t>
+  </si>
+  <si>
+    <t>308 (54.9%)</t>
+  </si>
+  <si>
+    <t>131 (49.4%)</t>
+  </si>
+  <si>
+    <t>134 (50.6%)</t>
+  </si>
+  <si>
+    <t>101 (49.8%)</t>
+  </si>
+  <si>
+    <t>102 (50.2%)</t>
+  </si>
+  <si>
+    <t>81 (64.8%)</t>
+  </si>
+  <si>
+    <t>44 (35.2%)</t>
+  </si>
+  <si>
+    <t>66 (68.0%)</t>
+  </si>
+  <si>
+    <t>31 (32.0%)</t>
+  </si>
+  <si>
+    <t>18-30</t>
+  </si>
+  <si>
+    <t>Had Mental Health Treatment
 N = 632</t>
   </si>
   <si>
-    <t>174 (69.0%)</t>
-  </si>
-  <si>
-    <t>538 (54.6%)</t>
-  </si>
-  <si>
-    <t>448 (45.4%)</t>
-  </si>
-  <si>
-    <t>78 (31.0%)</t>
-  </si>
-  <si>
-    <t>10 (76.9%)</t>
-  </si>
-  <si>
-    <t>3 (23.1%)</t>
-  </si>
-  <si>
-    <t>543 (49.8%)</t>
-  </si>
-  <si>
-    <t>75 (52.8%)</t>
-  </si>
-  <si>
-    <t>67 (47.2%)</t>
-  </si>
-  <si>
-    <t>548 (50.2%)</t>
-  </si>
-  <si>
-    <t>270 (35.4%)</t>
-  </si>
-  <si>
-    <t>492 (64.6%)</t>
-  </si>
-  <si>
-    <t>362 (74.0%)</t>
-  </si>
-  <si>
-    <t>127 (26.0%)</t>
-  </si>
-  <si>
-    <t>127 (43.9%)</t>
-  </si>
-  <si>
-    <t>162 (56.1%)</t>
-  </si>
-  <si>
-    <t>149 (51.7%)</t>
-  </si>
-  <si>
-    <t>139 (48.3%)</t>
-  </si>
-  <si>
-    <t>146 (52.0%)</t>
-  </si>
-  <si>
-    <t>135 (48.0%)</t>
-  </si>
-  <si>
-    <t>95 (54.3%)</t>
-  </si>
-  <si>
-    <t>80 (45.7%)</t>
-  </si>
-  <si>
-    <t>88 (55.7%)</t>
-  </si>
-  <si>
-    <t>70 (44.3%)</t>
-  </si>
-  <si>
-    <t>437 (49.7%)</t>
-  </si>
-  <si>
-    <t>443 (50.3%)</t>
-  </si>
-  <si>
-    <t>195 (52.6%)</t>
-  </si>
-  <si>
-    <t>176 (47.4%)</t>
-  </si>
-  <si>
-    <t>206 (41.3%)</t>
-  </si>
-  <si>
-    <t>293 (58.7%)</t>
-  </si>
-  <si>
-    <t>303 (69.0%)</t>
-  </si>
-  <si>
-    <t>136 (31.0%)</t>
-  </si>
-  <si>
-    <t>123 (39.3%)</t>
-  </si>
-  <si>
-    <t>190 (60.7%)</t>
-  </si>
-  <si>
-    <t>320 (49.9%)</t>
-  </si>
-  <si>
-    <t>321 (50.1%)</t>
-  </si>
-  <si>
-    <t>166 (45.7%)</t>
-  </si>
-  <si>
-    <t>197 (54.3%)</t>
-  </si>
-  <si>
-    <t>146 (59.1%)</t>
-  </si>
-  <si>
-    <t>101 (40.9%)</t>
-  </si>
-  <si>
-    <t>369 (45.3%)</t>
-  </si>
-  <si>
-    <t>446 (54.7%)</t>
-  </si>
-  <si>
-    <t>226 (60.8%)</t>
-  </si>
-  <si>
-    <t>146 (39.2%)</t>
-  </si>
-  <si>
-    <t>37 (57.8%)</t>
-  </si>
-  <si>
-    <t>27 (42.2%)</t>
-  </si>
-  <si>
-    <t>253 (45.1%)</t>
-  </si>
-  <si>
-    <t>308 (54.9%)</t>
-  </si>
-  <si>
-    <t>131 (49.4%)</t>
-  </si>
-  <si>
-    <t>134 (50.6%)</t>
-  </si>
-  <si>
-    <t>101 (49.8%)</t>
-  </si>
-  <si>
-    <t>102 (50.2%)</t>
-  </si>
-  <si>
-    <t>81 (64.8%)</t>
-  </si>
-  <si>
-    <t>44 (35.2%)</t>
-  </si>
-  <si>
-    <t>66 (68.0%)</t>
-  </si>
-  <si>
-    <t>31 (32.0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not had Mental Health Treatment
+    <t xml:space="preserve">Not had Mental Health Treatment 
 N = 619 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">greater_than 30  </t>
+  </si>
+  <si>
+    <t>Age_Group</t>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
+  </si>
+  <si>
+    <t>Chi Square p value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +433,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -452,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -775,11 +791,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -875,12 +930,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -896,9 +945,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -935,6 +981,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,687 +1313,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995AD6EA-F558-4424-854A-0480BB615F4B}">
-  <dimension ref="B1:F63"/>
+  <dimension ref="B1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>6</v>
+      <c r="C1" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="31"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38">
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="52"/>
+      <c r="C10" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="33"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="31"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="31"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
+        <v>45809</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="20">
+        <v>44317</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="14"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="31"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="32"/>
+    </row>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="60"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="57"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="57"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="12">
+        <v>8</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="61"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="31"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="35">
-        <v>30</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="35">
-        <v>40</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
-      <c r="C6" s="35">
+      <c r="C45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="31"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="32"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="35">
-        <v>60</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40">
-        <v>70</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="31"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="55"/>
-      <c r="C14" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
+      <c r="D50" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="31"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="56">
-        <v>45809</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="20">
-        <v>44317</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="C52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="36"/>
+      <c r="C53" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="14"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="31"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="31"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="32"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="31"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="39"/>
-      <c r="C49" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="31"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="32"/>
-    </row>
-    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="26" t="s">
+      <c r="C56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="43" t="s">
+      <c r="D57" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="36"/>
-      <c r="C55" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="31"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="32"/>
-    </row>
-    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="26" t="s">
+      <c r="E57" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="47" t="s">
+      <c r="D58" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="E58" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
@@ -1938,11 +2016,11 @@
       <c r="C59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" s="43" t="s">
+      <c r="D59" s="41" t="s">
         <v>112</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="F59" s="10"/>
     </row>
@@ -1953,56 +2031,26 @@
       <c r="C60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" s="43" t="s">
+      <c r="D60" s="41" t="s">
         <v>114</v>
       </c>
+      <c r="E60" s="41" t="s">
+        <v>115</v>
+      </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="39"/>
-      <c r="C63" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="13"/>
+    <row r="61" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" location="pp_var_8657649595007696194" display="pp_var_8657649595007696194" xr:uid="{D7A1D139-C881-4FD7-8D1A-81B07E2788FC}"/>
+    <hyperlink ref="B12" r:id="rId1" location="pp_var_8657649595007696194" display="pp_var_8657649595007696194" xr:uid="{D7A1D139-C881-4FD7-8D1A-81B07E2788FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
